--- a/SPEKTRAL_ANALİZ/EXCELLER/antalya_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/antalya_tudes_ssh_model.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>36130</v>
+        <v>36251</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1486710317460317</v>
+        <v>0.08007807239057239</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03160889692301204</v>
+        <v>0.09402418753978307</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>36161</v>
+        <v>36281</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05152881019167836</v>
+        <v>0.07789153810191679</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03901602002424809</v>
+        <v>0.09075799933688516</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>36192</v>
+        <v>36312</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02804613095238095</v>
+        <v>0.09526062801932368</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05098805348485751</v>
+        <v>0.09610952859224182</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>36220</v>
+        <v>36342</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.05922311827956989</v>
+        <v>0.1518588709677419</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06836057706446462</v>
+        <v>0.103620262793537</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>36251</v>
+        <v>36373</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.05683194444444444</v>
+        <v>0.174760752688172</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07149619156157185</v>
+        <v>0.1024296241788368</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>36281</v>
+        <v>36404</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03858198924731183</v>
+        <v>0.1471847222222222</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04047849333497992</v>
+        <v>0.08910571399443507</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>36312</v>
+        <v>36434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01935277777777778</v>
+        <v>0.1171046049555867</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02052541942941623</v>
+        <v>0.07238839502247438</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>36342</v>
+        <v>36465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1047096774193548</v>
+        <v>0.08577483790999238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0802877445812466</v>
+        <v>0.06575029921737258</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>36373</v>
+        <v>36495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1206007142857143</v>
+        <v>0.07383924022837067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1038195896371878</v>
+        <v>0.07486618563651509</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>36404</v>
+        <v>36526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07636111111111112</v>
+        <v>0.005884662088729409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08077213926093291</v>
+        <v>0.09226888530552713</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>36434</v>
+        <v>36557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0373508064516129</v>
+        <v>0.01214220019111323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03230338470624709</v>
+        <v>0.1044472763038435</v>
       </c>
     </row>
     <row r="13">
@@ -613,27 +613,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>36465</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.04295972222222222</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.009523292116875151</v>
-      </c>
+        <v>36586</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>36495</v>
+        <v>36617</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.08565591397849462</v>
+        <v>0.1343673627807633</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02935639792660809</v>
+        <v>0.09727459266663258</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>36526</v>
+        <v>36647</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06896908602150538</v>
+        <v>0.03284700263504611</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03676352102784415</v>
+        <v>0.09400840446373467</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>36557</v>
+        <v>36678</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1148281695156695</v>
+        <v>0.03794444444444444</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.04873555448845356</v>
+        <v>0.09935993371909133</v>
       </c>
     </row>
     <row r="17">
@@ -669,23 +665,27 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>36586</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+        <v>36708</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1476659164671346</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1068706679203865</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>36617</v>
+        <v>36739</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04368640350877193</v>
+        <v>0.08093010752688172</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06924369256516794</v>
+        <v>0.1056800293056863</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>36647</v>
+        <v>36770</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.05313709677419355</v>
+        <v>0.1119398276240668</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03822599433857597</v>
+        <v>0.09235611912128455</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>36678</v>
+        <v>36800</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05500972222222222</v>
+        <v>0.07804337732160312</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02277791842582015</v>
+        <v>0.07563880014932388</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>36708</v>
+        <v>36831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0757782258064516</v>
+        <v>0.1212519444444444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0825402435776505</v>
+        <v>0.06900070434422208</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>36739</v>
+        <v>36861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04208870967741936</v>
+        <v>0.08665027223230491</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1060720886335917</v>
+        <v>0.07811659076336462</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>36770</v>
+        <v>36892</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06213592995169082</v>
+        <v>0.09544899477870493</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08302463825733687</v>
+        <v>0.09551929043237663</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>36800</v>
+        <v>36923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008280913978494623</v>
+        <v>0.04180971790890269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03455588370265114</v>
+        <v>0.107697681430693</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>36831</v>
+        <v>36951</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.001056944444444444</v>
+        <v>0.1197307152875175</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.007270793120471145</v>
+        <v>0.1076376443162121</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>36861</v>
+        <v>36982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004956744868035191</v>
+        <v>0.02870971673254282</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02710389893020414</v>
+        <v>0.1005249977934821</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>36892</v>
+        <v>37012</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01699696119682094</v>
+        <v>0.07882410004675082</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03451102203144021</v>
+        <v>0.09725880959058415</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>36923</v>
+        <v>37043</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.06525761693017128</v>
+        <v>0.07126902173913044</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.04648305549204964</v>
+        <v>0.1026103388459408</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>36951</v>
+        <v>37073</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.013625</v>
+        <v>0.1304556451612903</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.06385557907165672</v>
+        <v>0.110121073047236</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>36982</v>
+        <v>37104</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1055736111111111</v>
+        <v>0.1286209677419355</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.06699119356876398</v>
+        <v>0.1089304344325358</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>37012</v>
+        <v>37135</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01684274193548387</v>
+        <v>0.1762357487922705</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03597349534217205</v>
+        <v>0.09560652424813407</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>37043</v>
+        <v>37165</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02617612179487179</v>
+        <v>0.08919863253856943</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02503041742222384</v>
+        <v>0.07888920527617344</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>37073</v>
+        <v>37196</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08693279569892473</v>
+        <v>0.06694166666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08479274257405441</v>
+        <v>0.07225110947107158</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>37104</v>
+        <v>37226</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0915383064516129</v>
+        <v>0.0671208003952569</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1083245876299956</v>
+        <v>0.08136699589021405</v>
       </c>
     </row>
     <row r="35">
@@ -917,27 +917,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>37135</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.08458715277777777</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.08527713725374068</v>
-      </c>
+        <v>37257</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>37165</v>
+        <v>37288</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02865603085553997</v>
+        <v>0.03626897321428572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03680838269905494</v>
+        <v>0.1109480865575425</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +941,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>37196</v>
+        <v>37316</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.004315740740740739</v>
+        <v>0.07674686207502053</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.005018294124067298</v>
+        <v>0.1108880494430616</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +955,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>37226</v>
+        <v>37347</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04693191425120773</v>
+        <v>0.09786712642731664</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02485139993380019</v>
+        <v>0.1037754029203316</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +969,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>37257</v>
+        <v>37377</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.05305118727598566</v>
+        <v>0.05377742172020748</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03225852303503626</v>
+        <v>0.1005092147174336</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +983,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>37288</v>
+        <v>37408</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0922593005952381</v>
+        <v>0.08781863425925926</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.04423055649564563</v>
+        <v>0.1058607439727903</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +997,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>37316</v>
+        <v>37438</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.045375</v>
+        <v>0.1232972670250896</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.06160308007525273</v>
+        <v>0.1133714781740855</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1011,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>37347</v>
+        <v>37469</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00405011574074074</v>
+        <v>0.1574639336917563</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.06473869457236002</v>
+        <v>0.1121808395593853</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1025,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>37377</v>
+        <v>37500</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0455152329749104</v>
+        <v>0.1881474537037037</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03372099634576847</v>
+        <v>0.09885692937498369</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1039,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>37408</v>
+        <v>37530</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.008832986111111111</v>
+        <v>0.1453149641577061</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02728291641862797</v>
+        <v>0.08213961040302288</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1053,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>37438</v>
+        <v>37561</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06067909946236559</v>
+        <v>0.182857277049306</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08704524157045833</v>
+        <v>0.07550151459792107</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1067,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>37469</v>
+        <v>37591</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1123454203677731</v>
+        <v>0.1559856630824373</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1105770866263996</v>
+        <v>0.08461740101706355</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1081,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>37500</v>
+        <v>37622</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07607395833333334</v>
+        <v>0.162161990889156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08752963625014465</v>
+        <v>0.1020201006860757</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1095,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>37530</v>
+        <v>37653</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02284161168132942</v>
+        <v>0.04799442367660967</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03906088169545924</v>
+        <v>0.114198491684392</v>
       </c>
     </row>
     <row r="49">
@@ -1113,41 +1109,35 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>37561</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.05668782617845117</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-0.002765795127663333</v>
-      </c>
+        <v>37681</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>37591</v>
+        <v>37712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05100291705625682</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-0.02259890093739624</v>
-      </c>
+        <v>0.09168663194444444</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>37622</v>
+        <v>37742</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01316050627240144</v>
+        <v>0.08766113153594771</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0300060240386323</v>
+        <v>0.1070258080471811</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1145,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>37653</v>
+        <v>37773</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.03260568284237163</v>
+        <v>0.1362093413978495</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.04197805749924179</v>
+        <v>0.1037596198442831</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1159,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>37681</v>
+        <v>37803</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1093412552948843</v>
+        <v>0.1450631720430108</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.05935058107884877</v>
+        <v>0.1091111490996399</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1173,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>37712</v>
+        <v>37834</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0496137516950589</v>
+        <v>0.1069385101010101</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.06248619557595607</v>
+        <v>0.1166218833009349</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1187,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>37742</v>
+        <v>37865</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.05191039426523298</v>
+        <v>0.1523048515104967</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.03146849734936422</v>
+        <v>0.1154312446862348</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1201,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>37773</v>
+        <v>37895</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03391388888888889</v>
+        <v>0.08831672430830038</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02953541541503188</v>
+        <v>0.1021073345018331</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1215,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>37803</v>
+        <v>37926</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1175045922939068</v>
+        <v>0.09798194736637057</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08929774056686256</v>
+        <v>0.08539001552987238</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1229,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>37834</v>
+        <v>37956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1164280913978495</v>
+        <v>0.1990906137992832</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1128295856228035</v>
+        <v>0.07875191972477057</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1243,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>37865</v>
+        <v>37987</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06149631642512077</v>
+        <v>0.05823770649848236</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08978213524654888</v>
+        <v>0.08786780614391304</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1257,11 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>37895</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.05357056451612903</v>
-      </c>
+        <v>38018</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>0.04131338069186287</v>
+        <v>0.105270505812925</v>
       </c>
     </row>
     <row r="61">
@@ -1281,27 +1269,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>37926</v>
+        <v>38047</v>
       </c>
       <c r="C61" t="n">
-        <v>0.002444097222222223</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.0005132961312593783</v>
-      </c>
+        <v>0.03798996179444549</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>37956</v>
+        <v>38078</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04765069694895255</v>
+        <v>0.1217245118760064</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02034640194099224</v>
+        <v>0.1173888596967606</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1295,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>37987</v>
+        <v>38108</v>
       </c>
       <c r="C63" t="n">
-        <v>0.131464338271009</v>
+        <v>0.08977083333333334</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02775352504222836</v>
+        <v>0.1102762131740306</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1309,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>38018</v>
+        <v>38139</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.03031666505762271</v>
+        <v>0.1051646505376344</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.03972555850283772</v>
+        <v>0.1070100249711326</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1323,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>38047</v>
+        <v>38169</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1188187724014337</v>
+        <v>0.1704066980286738</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.05709808208244492</v>
+        <v>0.1123615542264893</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1337,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>38078</v>
+        <v>38200</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.06974363425925925</v>
+        <v>0.109915625</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.06023369657955222</v>
+        <v>0.1198722884277845</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1351,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>38108</v>
+        <v>38231</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0172187521390177</v>
+        <v>0.1337190860215054</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0292159983529603</v>
+        <v>0.1186816498130843</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1365,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>38139</v>
+        <v>38261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.009707175925925926</v>
+        <v>0.1281150412640902</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03178791441143624</v>
+        <v>0.1053577396286826</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1379,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>38169</v>
+        <v>38292</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08068380376344085</v>
+        <v>0.05304636480167225</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09155023956326616</v>
+        <v>0.0886404206567218</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1393,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>38200</v>
+        <v>38322</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1270771020243846</v>
+        <v>0.07475027021592082</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1150820846192075</v>
+        <v>0.08200232485162007</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1407,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>38231</v>
+        <v>38353</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07401597222222223</v>
+        <v>0.06057794832733691</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09203463424295286</v>
+        <v>0.09111821127076263</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1421,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>38261</v>
+        <v>38384</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05825549768518518</v>
+        <v>0.05428020784634564</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04356587968826685</v>
+        <v>0.1085209109397745</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1435,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>38292</v>
+        <v>38412</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01335958994708994</v>
+        <v>0.04987731957735247</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001739202865144361</v>
+        <v>0.120699301938091</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1449,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>38322</v>
+        <v>38443</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.07754791281515419</v>
+        <v>0.07764448924731182</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01809390294458836</v>
+        <v>0.12063926482361</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1463,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>38353</v>
+        <v>38473</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.06095439928845101</v>
+        <v>0.1042005787037037</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02550102604582436</v>
+        <v>0.1135266183008801</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1477,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>38384</v>
+        <v>38504</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.06704634514790765</v>
+        <v>0.1514830869175627</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03747305950643377</v>
+        <v>0.1102604300979821</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1491,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>38412</v>
+        <v>38534</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.05552877595966411</v>
+        <v>0.194869886629266</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.05484558308604098</v>
+        <v>0.1156119593533388</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1505,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>38443</v>
+        <v>38565</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.05832150549229353</v>
+        <v>0.1374069444444444</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.05798119758314828</v>
+        <v>0.123122693554634</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1519,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>38473</v>
+        <v>38596</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.0387206541218638</v>
+        <v>0.05580645648278011</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02696349935655638</v>
+        <v>0.1219320549399339</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1533,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>38504</v>
+        <v>38626</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02590868055555556</v>
+        <v>0.04419978956228956</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03404041340783925</v>
+        <v>0.1086081447555321</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1547,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>38534</v>
+        <v>38657</v>
       </c>
       <c r="C81" t="n">
-        <v>0.101508064516129</v>
+        <v>0.08461852306373695</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09380273855967008</v>
+        <v>0.09189082578357149</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1561,11 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>38565</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.136386188271605</v>
-      </c>
+        <v>38687</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>0.1173345836156114</v>
+        <v>0.08525272997846957</v>
       </c>
     </row>
     <row r="83">
@@ -1589,27 +1573,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>38596</v>
+        <v>38718</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0800931712962963</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.09428713323935681</v>
-      </c>
+        <v>0.03114262941919192</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>38626</v>
+        <v>38749</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.009514437856829162</v>
+        <v>0.1305325648667602</v>
       </c>
       <c r="D84" t="n">
-        <v>0.04581837868467149</v>
+        <v>0.111771316066624</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1599,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>38657</v>
+        <v>38777</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.06715530785418991</v>
+        <v>0.070051731078905</v>
       </c>
       <c r="D85" t="n">
-        <v>0.003991701861548319</v>
+        <v>0.1239497070649404</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1613,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>38687</v>
+        <v>38808</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02355023690078038</v>
+        <v>0.02814650537634409</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01584140394818441</v>
+        <v>0.1238896699504595</v>
       </c>
     </row>
     <row r="87">
@@ -1645,23 +1627,27 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>38718</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+        <v>38838</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.07117291666666666</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1167770234277296</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>38749</v>
+        <v>38869</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.09097540204678363</v>
+        <v>0.1007586245519713</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.03522056051002984</v>
+        <v>0.1135108352248317</v>
       </c>
     </row>
     <row r="89">
@@ -1669,13 +1655,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>38777</v>
+        <v>38899</v>
       </c>
       <c r="C89" t="n">
-        <v>0.157</v>
+        <v>0.1778625672043011</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.05259308408963684</v>
+        <v>0.1188623644801883</v>
       </c>
     </row>
     <row r="90">
@@ -1683,47 +1669,61 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>38808</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+        <v>38930</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1344040157004831</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1263730986814834</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>38838</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+        <v>38961</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1552408154121864</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1251824600667833</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>38869</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+        <v>38991</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1011640801127214</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1118585498823816</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>38899</v>
+        <v>39022</v>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>0.09514123091042082</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>38930</v>
+        <v>39052</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
@@ -1733,9 +1733,11 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>38961</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>39083</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.03912927165678524</v>
+      </c>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -1743,19 +1745,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>38991</v>
+        <v>39114</v>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>0.1150217211934735</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>39022</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
+        <v>39142</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.001317399538866927</v>
+      </c>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -1763,27 +1769,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>39052</v>
+        <v>39173</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.2411726190476191</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-0.01358890495178047</v>
-      </c>
+        <v>0.11572734375</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>39083</v>
+        <v>39203</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1605487231182796</v>
+        <v>0.09931209935897437</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.02099602805301648</v>
+        <v>0.127140075077309</v>
       </c>
     </row>
     <row r="100">
@@ -1791,13 +1795,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>39114</v>
+        <v>39234</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.07499590773809524</v>
+        <v>0.1599066558441558</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.03296806151362588</v>
+        <v>0.1200274285545791</v>
       </c>
     </row>
     <row r="101">
@@ -1805,13 +1809,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>39142</v>
+        <v>39264</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1085679883512545</v>
+        <v>0.06383333333333334</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.05034058509323307</v>
+        <v>0.1167612403516811</v>
       </c>
     </row>
     <row r="102">
@@ -1819,13 +1823,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>39173</v>
+        <v>39295</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1441793981481481</v>
+        <v>0.1121401209677419</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.05347619959034025</v>
+        <v>0.1221127696070378</v>
       </c>
     </row>
     <row r="103">
@@ -1833,13 +1837,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>39203</v>
+        <v>39326</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.06385909498207885</v>
+        <v>0.09257205968173922</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.02245850136374854</v>
+        <v>0.129623503808333</v>
       </c>
     </row>
     <row r="104">
@@ -1847,13 +1851,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>39234</v>
+        <v>39356</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04055243055555556</v>
+        <v>0.0700121489907245</v>
       </c>
       <c r="D104" t="n">
-        <v>0.03854541140064707</v>
+        <v>0.1284328651936327</v>
       </c>
     </row>
     <row r="105">
@@ -1861,13 +1865,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>39264</v>
+        <v>39387</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08688310775699169</v>
+        <v>0.002806478428848695</v>
       </c>
       <c r="D105" t="n">
-        <v>0.09830773655247793</v>
+        <v>0.1151089550092311</v>
       </c>
     </row>
     <row r="106">
@@ -1875,13 +1879,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>39295</v>
+        <v>39417</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1473773521505376</v>
+        <v>0.06328598630312339</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1218395816084193</v>
+        <v>0.0983916360372705</v>
       </c>
     </row>
     <row r="107">
@@ -1889,13 +1893,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>39326</v>
+        <v>39448</v>
       </c>
       <c r="C107" t="n">
-        <v>0.06756944444444443</v>
+        <v>0.07041145833333334</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09879213123216417</v>
+        <v>0.09175354023216856</v>
       </c>
     </row>
     <row r="108">
@@ -1903,27 +1907,25 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>39356</v>
+        <v>39479</v>
       </c>
       <c r="C108" t="n">
-        <v>0.03942069892473118</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.05032337667747873</v>
-      </c>
+        <v>0.05560726686507936</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>39387</v>
+        <v>39508</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0006225694444444444</v>
+        <v>0.08384131944444445</v>
       </c>
       <c r="D109" t="n">
-        <v>0.008496699854356655</v>
+        <v>0.1008694266513111</v>
       </c>
     </row>
     <row r="110">
@@ -1931,13 +1933,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>39417</v>
+        <v>39539</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01860159050179211</v>
+        <v>0.08874973704056521</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.01133640595537652</v>
+        <v>0.1182721263203232</v>
       </c>
     </row>
     <row r="111">
@@ -1945,13 +1947,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>39448</v>
+        <v>39569</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1005246108058608</v>
+        <v>0.1388090277777778</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.01874352905661253</v>
+        <v>0.1304505173186395</v>
       </c>
     </row>
     <row r="112">
@@ -1959,13 +1961,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>39479</v>
+        <v>39600</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.222666848867233</v>
+        <v>0.156757786676837</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.03071556251722216</v>
+        <v>0.1303904802041586</v>
       </c>
     </row>
     <row r="113">
@@ -1973,13 +1975,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>39508</v>
+        <v>39630</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.08883714157706094</v>
+        <v>0.0485693275673991</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.04808808609682913</v>
+        <v>0.1232778336814286</v>
       </c>
     </row>
     <row r="114">
@@ -1987,13 +1989,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>39539</v>
+        <v>39661</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.01235289351851852</v>
+        <v>0.1093114583333333</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.05122370059393647</v>
+        <v>0.1200116454785306</v>
       </c>
     </row>
     <row r="115">
@@ -2001,13 +2003,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>39569</v>
+        <v>39692</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.04027579611248967</v>
+        <v>0.1175384866370578</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.02020600236734462</v>
+        <v>0.1253631747338874</v>
       </c>
     </row>
     <row r="116">
@@ -2015,13 +2017,11 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>39600</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.01268055555555556</v>
-      </c>
+        <v>39722</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>0.04079791039705098</v>
+        <v>0.1328739089351824</v>
       </c>
     </row>
     <row r="117">
@@ -2029,13 +2029,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>39630</v>
+        <v>39753</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1006983646953405</v>
+        <v>0.04507924563359345</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1005602355488825</v>
+        <v>0.1316832703204824</v>
       </c>
     </row>
     <row r="118">
@@ -2043,13 +2043,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>39661</v>
+        <v>39783</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1468652553763441</v>
+        <v>0.1022274131363805</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1240920806048232</v>
+        <v>0.1183593601360806</v>
       </c>
     </row>
     <row r="119">
@@ -2057,27 +2057,25 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>39692</v>
+        <v>39814</v>
       </c>
       <c r="C119" t="n">
-        <v>0.08729062500000001</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.1010446302285687</v>
-      </c>
+        <v>0.1943167708333333</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>39722</v>
+        <v>39845</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.01805812314736341</v>
+        <v>0.1538710797491039</v>
       </c>
       <c r="D120" t="n">
-        <v>0.05257587567388271</v>
+        <v>0.09500394535901807</v>
       </c>
     </row>
     <row r="121">
@@ -2085,13 +2083,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>39753</v>
+        <v>39873</v>
       </c>
       <c r="C121" t="n">
-        <v>0.05519164505310001</v>
+        <v>0.1188504704301075</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01074919885076061</v>
+        <v>0.1041198317781606</v>
       </c>
     </row>
     <row r="122">
@@ -2099,41 +2097,37 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>39783</v>
+        <v>39904</v>
       </c>
       <c r="C122" t="n">
-        <v>0.007057469936449136</v>
-      </c>
-      <c r="D122" t="n">
-        <v>-0.009083906958972425</v>
-      </c>
+        <v>0.1210023148148148</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>39814</v>
+        <v>39934</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.08605622375326093</v>
-      </c>
-      <c r="D123" t="n">
-        <v>-0.01649103006020868</v>
-      </c>
+        <v>0.1809640456989247</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>39845</v>
+        <v>39965</v>
       </c>
       <c r="C124" t="n">
-        <v>0.05288267721861472</v>
+        <v>0.1645008561939268</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.02846306352081799</v>
+        <v>0.1215225314471725</v>
       </c>
     </row>
     <row r="125">
@@ -2141,13 +2135,11 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>39873</v>
-      </c>
-      <c r="C125" t="n">
-        <v>-0.007617777777777774</v>
-      </c>
+        <v>39995</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>-0.04583558710042498</v>
+        <v>0.133700922445489</v>
       </c>
     </row>
     <row r="126">
@@ -2155,33 +2147,41 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>39904</v>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+        <v>40026</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.228273069767093</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1336408853310081</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>39934</v>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+        <v>40057</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.2470134978560179</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1265282388082782</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>39965</v>
+        <v>40087</v>
       </c>
       <c r="C128" t="n">
-        <v>0.05650694444444445</v>
+        <v>0.1180075983593967</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04305040939345579</v>
+        <v>0.1232620506053801</v>
       </c>
     </row>
     <row r="129">
@@ -2189,13 +2189,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>39995</v>
+        <v>40118</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1258350806451613</v>
+        <v>0.04985636574074074</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1028127345452864</v>
+        <v>0.1286135798607368</v>
       </c>
     </row>
     <row r="130">
@@ -2203,27 +2203,25 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>40026</v>
+        <v>40148</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1239284274193548</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.1263445796012272</v>
-      </c>
+        <v>0.1315987903225806</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>40057</v>
+        <v>40179</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09985694444444444</v>
+        <v>0.2191039653784219</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1032971292249727</v>
+        <v>0.1349336754473318</v>
       </c>
     </row>
     <row r="132">
@@ -2231,13 +2229,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>40087</v>
+        <v>40210</v>
       </c>
       <c r="C132" t="n">
-        <v>0.07044522849462365</v>
+        <v>0.1716780913978495</v>
       </c>
       <c r="D132" t="n">
-        <v>0.05482837467028666</v>
+        <v>0.1216097652629301</v>
       </c>
     </row>
     <row r="133">
@@ -2245,13 +2243,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>40118</v>
+        <v>40238</v>
       </c>
       <c r="C133" t="n">
-        <v>0.08934583333333333</v>
+        <v>0.2107032930107527</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01300169784716414</v>
+        <v>0.1048924462909693</v>
       </c>
     </row>
     <row r="134">
@@ -2259,13 +2257,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>40148</v>
+        <v>40269</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2005023521505376</v>
+        <v>0.2179892210144928</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.006831407962568758</v>
+        <v>0.09825435048586757</v>
       </c>
     </row>
     <row r="135">
@@ -2273,13 +2271,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>40179</v>
+        <v>40299</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1382313868878122</v>
+        <v>0.2061883619682094</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.01423853106380463</v>
+        <v>0.1073702369050099</v>
       </c>
     </row>
     <row r="136">
@@ -2287,13 +2285,11 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>40210</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.1075566716269841</v>
-      </c>
+        <v>40330</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>-0.02621056452441403</v>
+        <v>0.124772936574022</v>
       </c>
     </row>
     <row r="137">
@@ -2301,13 +2297,11 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>40238</v>
-      </c>
-      <c r="C137" t="n">
-        <v>-0.0001303763440860224</v>
-      </c>
+        <v>40360</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>-0.04358308810402124</v>
+        <v>0.1369513275723385</v>
       </c>
     </row>
     <row r="138">
@@ -2315,13 +2309,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>40269</v>
+        <v>40391</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.06046798007246377</v>
+        <v>0.1415947071521668</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.04671870260112845</v>
+        <v>0.1368912904578575</v>
       </c>
     </row>
     <row r="139">
@@ -2329,13 +2323,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>40299</v>
+        <v>40422</v>
       </c>
       <c r="C139" t="n">
-        <v>0.01332616487455197</v>
+        <v>0.1118949652777778</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.01570100437453611</v>
+        <v>0.1297786439351275</v>
       </c>
     </row>
     <row r="140">
@@ -2343,13 +2337,11 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>40330</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.1157465277777778</v>
-      </c>
+        <v>40452</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>0.0453029083898588</v>
+        <v>0.1265124557322296</v>
       </c>
     </row>
     <row r="141">
@@ -2357,41 +2349,37 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>40360</v>
+        <v>40483</v>
       </c>
       <c r="C141" t="n">
-        <v>0.127457997311828</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.1050652335416897</v>
-      </c>
+        <v>0.02341203703703704</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>40391</v>
+        <v>40513</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1846001344086022</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.1285970785976311</v>
-      </c>
+        <v>0.09350436827956989</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>40422</v>
+        <v>40544</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1705702999194847</v>
+        <v>0.1595267210144928</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1055496282213772</v>
+        <v>0.1381840805741812</v>
       </c>
     </row>
     <row r="144">
@@ -2399,13 +2387,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>40452</v>
+        <v>40575</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0878290770609319</v>
+        <v>0.2101451918377322</v>
       </c>
       <c r="D144" t="n">
-        <v>0.05708087366668995</v>
+        <v>0.1248601703897794</v>
       </c>
     </row>
     <row r="145">
@@ -2413,27 +2401,25 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>40483</v>
+        <v>40603</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1064121527777778</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.01525419684356852</v>
-      </c>
+        <v>0.1804873431899642</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>40513</v>
+        <v>40634</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1967550403225806</v>
+        <v>0.1805070601851852</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.004578908966164669</v>
+        <v>0.1015047556127171</v>
       </c>
     </row>
     <row r="147">
@@ -2441,13 +2427,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>40544</v>
+        <v>40664</v>
       </c>
       <c r="C147" t="n">
-        <v>0.03816890681003585</v>
+        <v>0.1147234863031234</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.01198603206740079</v>
+        <v>0.1106206420318596</v>
       </c>
     </row>
     <row r="148">
@@ -2455,13 +2441,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>40575</v>
+        <v>40695</v>
       </c>
       <c r="C148" t="n">
-        <v>0.005217620400432901</v>
+        <v>0.02867165157004831</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.02395806552800987</v>
+        <v>0.1280233417008712</v>
       </c>
     </row>
     <row r="149">
@@ -2469,13 +2455,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>40603</v>
+        <v>40725</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.08005266771856008</v>
+        <v>0.07647003963194356</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.04133058910761748</v>
+        <v>0.1402017326991881</v>
       </c>
     </row>
     <row r="150">
@@ -2483,13 +2469,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>40634</v>
+        <v>40756</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.05145783971966037</v>
+        <v>0.06799416686146174</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.04446620360472466</v>
+        <v>0.1401416955847071</v>
       </c>
     </row>
     <row r="151">
@@ -2497,13 +2483,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>40664</v>
+        <v>40787</v>
       </c>
       <c r="C151" t="n">
-        <v>0.008577284946236557</v>
+        <v>0.01517161631575987</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.01344850537813287</v>
+        <v>0.1330290490619771</v>
       </c>
     </row>
     <row r="152">
@@ -2511,13 +2497,11 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>40695</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.0820000496031746</v>
-      </c>
+        <v>40817</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>0.04755540738626361</v>
+        <v>0.1297628608590791</v>
       </c>
     </row>
     <row r="153">
@@ -2525,13 +2509,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>40725</v>
+        <v>40848</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1728753360215054</v>
+        <v>0.1720341666666667</v>
       </c>
       <c r="D153" t="n">
-        <v>0.107317732538093</v>
+        <v>0.1351143901144356</v>
       </c>
     </row>
     <row r="154">
@@ -2539,13 +2523,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>40756</v>
+        <v>40878</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1850913978494624</v>
+        <v>0.1836221998207885</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1308495775940351</v>
+        <v>0.142625124315731</v>
       </c>
     </row>
     <row r="155">
@@ -2553,13 +2537,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>40787</v>
+        <v>40909</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1699420138888889</v>
+        <v>0.1337613425925926</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1078021272177806</v>
+        <v>0.1414344857010308</v>
       </c>
     </row>
     <row r="156">
@@ -2567,13 +2551,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>40817</v>
+        <v>40940</v>
       </c>
       <c r="C156" t="n">
-        <v>0.06334047326855005</v>
+        <v>0.1694049059139785</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0593333726630946</v>
+        <v>0.1281105755166291</v>
       </c>
     </row>
     <row r="157">
@@ -2581,27 +2565,25 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>40848</v>
+        <v>40969</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.01901956018518519</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.01750669583997206</v>
-      </c>
+        <v>0.184630376344086</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>40878</v>
+        <v>41000</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.03476657706093191</v>
+        <v>0.1503285879629629</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.002326409969760593</v>
+        <v>0.1047551607395665</v>
       </c>
     </row>
     <row r="159">
@@ -2609,13 +2591,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>40909</v>
+        <v>41030</v>
       </c>
       <c r="C159" t="n">
-        <v>0.04819154686769518</v>
+        <v>0.2148591824315259</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.009733533070996746</v>
+        <v>0.1138710471587089</v>
       </c>
     </row>
     <row r="160">
@@ -2623,13 +2605,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>40940</v>
+        <v>41061</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.06346567341329336</v>
+        <v>0.1547515617484367</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.02170556653160614</v>
+        <v>0.131273746827721</v>
       </c>
     </row>
     <row r="161">
@@ -2637,13 +2619,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>40969</v>
+        <v>41091</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.1150089557035998</v>
+        <v>0.2243510061165654</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.03907809011121334</v>
+        <v>0.1434521378260375</v>
       </c>
     </row>
     <row r="162">
@@ -2651,13 +2633,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>41000</v>
+        <v>41122</v>
       </c>
       <c r="C162" t="n">
-        <v>0.03515590277777778</v>
+        <v>0.1861973440363152</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.04221370460832058</v>
+        <v>0.1433921007115565</v>
       </c>
     </row>
     <row r="163">
@@ -2665,13 +2647,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>41030</v>
+        <v>41153</v>
       </c>
       <c r="C163" t="n">
-        <v>0.04979435483870968</v>
+        <v>0.1769932766131815</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.01119600638172961</v>
+        <v>0.1362794541888267</v>
       </c>
     </row>
     <row r="164">
@@ -2679,13 +2661,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>41061</v>
+        <v>41183</v>
       </c>
       <c r="C164" t="n">
-        <v>0.02804895833333333</v>
+        <v>0.2017663451913619</v>
       </c>
       <c r="D164" t="n">
-        <v>0.04980790638266662</v>
+        <v>0.1330132659859286</v>
       </c>
     </row>
     <row r="165">
@@ -2693,13 +2675,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>41091</v>
+        <v>41214</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1491004704301075</v>
+        <v>0.1269174129115096</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1095702315344975</v>
+        <v>0.1383647952412853</v>
       </c>
     </row>
     <row r="166">
@@ -2707,13 +2689,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>41122</v>
+        <v>41244</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1787879704301075</v>
+        <v>0.1706182795698925</v>
       </c>
       <c r="D166" t="n">
-        <v>0.133102076590439</v>
+        <v>0.1458755294425805</v>
       </c>
     </row>
     <row r="167">
@@ -2721,13 +2703,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>41153</v>
+        <v>41275</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1067748842592593</v>
+        <v>0.1837529017857143</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1100546262141851</v>
+        <v>0.1446848908278802</v>
       </c>
     </row>
     <row r="168">
@@ -2735,13 +2717,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>41183</v>
+        <v>41306</v>
       </c>
       <c r="C168" t="n">
-        <v>0.123142585125448</v>
+        <v>0.1730036220043573</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06158587165949787</v>
+        <v>0.1313609806434789</v>
       </c>
     </row>
     <row r="169">
@@ -2749,13 +2731,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>41214</v>
+        <v>41334</v>
       </c>
       <c r="C169" t="n">
-        <v>0.04649861111111111</v>
+        <v>0.1954156586021505</v>
       </c>
       <c r="D169" t="n">
-        <v>0.01975919483637559</v>
+        <v>0.114643661671518</v>
       </c>
     </row>
     <row r="170">
@@ -2763,13 +2745,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>41244</v>
+        <v>41365</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1405423387096774</v>
+        <v>0.1514346064814815</v>
       </c>
       <c r="D170" t="n">
-        <v>-7.391097335679442e-05</v>
+        <v>0.108005565866416</v>
       </c>
     </row>
     <row r="171">
@@ -2777,13 +2759,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>41275</v>
+        <v>41395</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1130301299283154</v>
+        <v>0.1411407053529687</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.007481034074592899</v>
+        <v>0.1171214522855581</v>
       </c>
     </row>
     <row r="172">
@@ -2791,13 +2773,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>41306</v>
+        <v>41426</v>
       </c>
       <c r="C172" t="n">
-        <v>0.05184709821428572</v>
+        <v>0.2004628472222222</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.01945306753520242</v>
+        <v>0.1345241519545702</v>
       </c>
     </row>
     <row r="173">
@@ -2805,13 +2787,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>41334</v>
+        <v>41456</v>
       </c>
       <c r="C173" t="n">
-        <v>0.04619042527812689</v>
+        <v>0.03256225163627863</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.03682559111480918</v>
+        <v>0.1467025429528871</v>
       </c>
     </row>
     <row r="174">
@@ -2819,13 +2801,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>41365</v>
+        <v>41487</v>
       </c>
       <c r="C174" t="n">
-        <v>0.09097439714170692</v>
+        <v>0.1369349353457436</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.03996120561191678</v>
+        <v>0.1466425058384059</v>
       </c>
     </row>
     <row r="175">
@@ -2833,13 +2815,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>41395</v>
+        <v>41518</v>
       </c>
       <c r="C175" t="n">
-        <v>0.076</v>
+        <v>0.0888768924689441</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.008943507385325025</v>
+        <v>0.1395298593156761</v>
       </c>
     </row>
     <row r="176">
@@ -2847,13 +2829,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>41426</v>
+        <v>41548</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.0950950238997114</v>
+        <v>0.04715302614149915</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05206040537906963</v>
+        <v>0.1362636711127781</v>
       </c>
     </row>
     <row r="177">
@@ -2861,13 +2843,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>41456</v>
+        <v>41579</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1591216145833333</v>
+        <v>0.1310700231481481</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1118227305309008</v>
+        <v>0.1416152003681349</v>
       </c>
     </row>
     <row r="178">
@@ -2875,13 +2857,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>41487</v>
+        <v>41609</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1500824518856163</v>
+        <v>0.09909475806451613</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1353545755868429</v>
+        <v>0.1491259345694299</v>
       </c>
     </row>
     <row r="179">
@@ -2889,13 +2871,13 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>41518</v>
+        <v>41640</v>
       </c>
       <c r="C179" t="n">
-        <v>0.07268298611111111</v>
+        <v>0.1460498842592593</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1123071252105874</v>
+        <v>0.1479352959547298</v>
       </c>
     </row>
     <row r="180">
@@ -2903,13 +2885,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>41548</v>
+        <v>41671</v>
       </c>
       <c r="C180" t="n">
-        <v>0.007340720936574723</v>
+        <v>0.2066101190476191</v>
       </c>
       <c r="D180" t="n">
-        <v>0.06383837065590253</v>
+        <v>0.1346113857703281</v>
       </c>
     </row>
     <row r="181">
@@ -2917,13 +2899,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>41579</v>
+        <v>41699</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01321154923901634</v>
+        <v>0.2188758083995637</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02201169383277996</v>
+        <v>0.1178940667983677</v>
       </c>
     </row>
     <row r="182">
@@ -2931,13 +2913,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>41609</v>
+        <v>41730</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.1112556567650726</v>
+        <v>0.2360566072866344</v>
       </c>
       <c r="D182" t="n">
-        <v>0.002178588023047018</v>
+        <v>0.1112559709932655</v>
       </c>
     </row>
     <row r="183">
@@ -2945,13 +2927,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>41640</v>
+        <v>41760</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.06731047988494082</v>
+        <v>0.1399789426523297</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.005228535078188865</v>
+        <v>0.1203718574124078</v>
       </c>
     </row>
     <row r="184">
@@ -2959,13 +2941,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>41671</v>
+        <v>41791</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.08865922619047618</v>
+        <v>0.1711203703703704</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.01720056853879823</v>
+        <v>0.1377745570814204</v>
       </c>
     </row>
     <row r="185">
@@ -2973,13 +2955,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>41699</v>
+        <v>41821</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.1238149541013349</v>
+        <v>0.1805763158407355</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.03457309211840544</v>
+        <v>0.1499529480797365</v>
       </c>
     </row>
     <row r="186">
@@ -2987,13 +2969,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>41730</v>
+        <v>41852</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.05584780092592592</v>
+        <v>0.09243704223157238</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.03770870661551302</v>
+        <v>0.1498929109652555</v>
       </c>
     </row>
     <row r="187">
@@ -3001,13 +2983,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>41760</v>
+        <v>41883</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.06078998655913978</v>
+        <v>0.1344599443816697</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.006691008388921768</v>
+        <v>0.1427802644425255</v>
       </c>
     </row>
     <row r="188">
@@ -3015,13 +2997,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>41791</v>
+        <v>41913</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01391805555555556</v>
+        <v>0.02842842140474065</v>
       </c>
       <c r="D188" t="n">
-        <v>0.05431290437547444</v>
+        <v>0.1395140762396276</v>
       </c>
     </row>
     <row r="189">
@@ -3029,13 +3011,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>41821</v>
+        <v>41944</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1409119623655914</v>
+        <v>0.01307267776930248</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1140752295273066</v>
+        <v>0.1448656054949842</v>
       </c>
     </row>
     <row r="190">
@@ -3043,13 +3025,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>41852</v>
+        <v>41974</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1626861559139785</v>
+        <v>0.1181370967741935</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1376070745832469</v>
+        <v>0.1523763396962795</v>
       </c>
     </row>
     <row r="191">
@@ -3057,13 +3039,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>41883</v>
+        <v>42005</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1482157407407407</v>
+        <v>0.1246479166666667</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1145596242069919</v>
+        <v>0.1511857010815795</v>
       </c>
     </row>
     <row r="192">
@@ -3071,13 +3053,13 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>41913</v>
+        <v>42036</v>
       </c>
       <c r="C192" t="n">
-        <v>0.05298980094726063</v>
+        <v>0.1664251792114695</v>
       </c>
       <c r="D192" t="n">
-        <v>0.06609086965230582</v>
+        <v>0.1378617908971779</v>
       </c>
     </row>
     <row r="193">
@@ -3085,13 +3067,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>41944</v>
+        <v>42064</v>
       </c>
       <c r="C193" t="n">
-        <v>0.05215135618845173</v>
+        <v>0.2005779569892473</v>
       </c>
       <c r="D193" t="n">
-        <v>0.02426419282918435</v>
+        <v>0.121144471925217</v>
       </c>
     </row>
     <row r="194">
@@ -3099,13 +3081,13 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>41974</v>
+        <v>42095</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01464765218970035</v>
+        <v>0.199302662037037</v>
       </c>
       <c r="D194" t="n">
-        <v>0.004431087019451108</v>
+        <v>0.1145063761201151</v>
       </c>
     </row>
     <row r="195">
@@ -3113,13 +3095,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>42005</v>
+        <v>42125</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.01807635688684076</v>
+        <v>0.1920881285387772</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.002976036081785011</v>
+        <v>0.1236222625392575</v>
       </c>
     </row>
     <row r="196">
@@ -3127,13 +3109,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>42036</v>
+        <v>42156</v>
       </c>
       <c r="C196" t="n">
-        <v>0.02385408294102993</v>
+        <v>0.1378006006624213</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.01494806954239406</v>
+        <v>0.1410249622082697</v>
       </c>
     </row>
     <row r="197">
@@ -3141,13 +3123,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>42064</v>
+        <v>42186</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.08780046704513809</v>
+        <v>0.05151453856405131</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.03232059312200129</v>
+        <v>0.1532033532065861</v>
       </c>
     </row>
     <row r="198">
@@ -3155,13 +3137,13 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>42095</v>
+        <v>42217</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.09364750992063492</v>
+        <v>0.1763721939172581</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.03545620761910892</v>
+        <v>0.1531433160921051</v>
       </c>
     </row>
     <row r="199">
@@ -3169,13 +3151,13 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>42125</v>
+        <v>42248</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.009997871863799284</v>
+        <v>0.1279701747265247</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.004438509392518525</v>
+        <v>0.1460306695693751</v>
       </c>
     </row>
     <row r="200">
@@ -3183,13 +3165,13 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>42156</v>
+        <v>42278</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01055335648148148</v>
+        <v>0.1638692335084546</v>
       </c>
       <c r="D200" t="n">
-        <v>0.05656540337187926</v>
+        <v>0.1427644813664771</v>
       </c>
     </row>
     <row r="201">
@@ -3197,13 +3179,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>42186</v>
+        <v>42309</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1064475806451613</v>
+        <v>0.1290797622064342</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1163277285237099</v>
+        <v>0.1481160106218336</v>
       </c>
     </row>
     <row r="202">
@@ -3211,13 +3193,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>42217</v>
+        <v>42339</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1143548387096774</v>
+        <v>0.1473044834027875</v>
       </c>
       <c r="D202" t="n">
-        <v>0.1398595735796508</v>
+        <v>0.1556267448231289</v>
       </c>
     </row>
     <row r="203">
@@ -3225,13 +3207,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>42248</v>
+        <v>42370</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1035607831439788</v>
+        <v>0.1823986190332639</v>
       </c>
       <c r="D203" t="n">
-        <v>0.1168121232033964</v>
+        <v>0.1544361062084288</v>
       </c>
     </row>
     <row r="204">
@@ -3239,13 +3221,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>42278</v>
+        <v>42401</v>
       </c>
       <c r="C204" t="n">
-        <v>0.08032934432125609</v>
+        <v>0.1765708597233423</v>
       </c>
       <c r="D204" t="n">
-        <v>0.06834336864871046</v>
+        <v>0.1411121960240276</v>
       </c>
     </row>
     <row r="205">
@@ -3253,13 +3235,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>42309</v>
+        <v>42430</v>
       </c>
       <c r="C205" t="n">
-        <v>0.01479636994949495</v>
+        <v>0.1878485948058651</v>
       </c>
       <c r="D205" t="n">
-        <v>0.02651669182558789</v>
+        <v>0.1243948770520664</v>
       </c>
     </row>
     <row r="206">
@@ -3267,13 +3249,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>42339</v>
+        <v>42461</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.07883103354978356</v>
+        <v>0.1632430727099235</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006683586015855197</v>
+        <v>0.1177567812469646</v>
       </c>
     </row>
     <row r="207">
@@ -3281,13 +3263,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>42370</v>
+        <v>42491</v>
       </c>
       <c r="C207" t="n">
-        <v>0.073315111050679</v>
+        <v>0.1158329669460573</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.0007235370853809764</v>
+        <v>0.1268726676661072</v>
       </c>
     </row>
     <row r="208">
@@ -3295,13 +3277,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>42401</v>
+        <v>42522</v>
       </c>
       <c r="C208" t="n">
-        <v>0.02819039521802717</v>
+        <v>0.1284707758409445</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.01269557054599034</v>
+        <v>0.1442753673351189</v>
       </c>
     </row>
     <row r="209">
@@ -3309,13 +3291,11 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>42430</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.1060517921544907</v>
-      </c>
+        <v>42552</v>
+      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>-0.03006809412559715</v>
+        <v>0.1564537583334355</v>
       </c>
     </row>
     <row r="210">
@@ -3323,13 +3303,13 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>42461</v>
+        <v>42583</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0585187817563367</v>
+        <v>0.02664169902558929</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.03320370862270481</v>
+        <v>0.1563937212189545</v>
       </c>
     </row>
     <row r="211">
@@ -3337,13 +3317,11 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>42491</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.005860592738239248</v>
-      </c>
+        <v>42614</v>
+      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>-0.002186010396112604</v>
+        <v>0.1492810746962247</v>
       </c>
     </row>
     <row r="212">
@@ -3351,13 +3329,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>42522</v>
+        <v>42644</v>
       </c>
       <c r="C212" t="n">
-        <v>0.04580564931373948</v>
+        <v>0.04003802378725748</v>
       </c>
       <c r="D212" t="n">
-        <v>0.05881790236828407</v>
+        <v>0.1460148864933266</v>
       </c>
     </row>
     <row r="213">
@@ -3365,13 +3343,13 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>42552</v>
+        <v>42675</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1336659150771057</v>
+        <v>0.02777264233839518</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1185802275201132</v>
+        <v>0.1513664157486832</v>
       </c>
     </row>
     <row r="214">
@@ -3379,27 +3357,25 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>42583</v>
+        <v>42705</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1466115300756771</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.1421120725760548</v>
-      </c>
+        <v>0.1280542126114247</v>
+      </c>
+      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>42614</v>
+        <v>42736</v>
       </c>
       <c r="C215" t="n">
-        <v>0.09098388477782532</v>
+        <v>0.1187151201455556</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1190646221997998</v>
+        <v>0.1576865113352783</v>
       </c>
     </row>
     <row r="216">
@@ -3407,27 +3383,25 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>42644</v>
+        <v>42767</v>
       </c>
       <c r="C216" t="n">
-        <v>0.03459904432579734</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.07059586764511511</v>
-      </c>
+        <v>0.1682788185100597</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>42675</v>
+        <v>42795</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.001302201595638676</v>
+        <v>0.1596779225277554</v>
       </c>
       <c r="D217" t="n">
-        <v>0.02876919082199226</v>
+        <v>0.1276452821789157</v>
       </c>
     </row>
     <row r="218">
@@ -3435,13 +3409,13 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>42705</v>
+        <v>42826</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.1085242775835476</v>
+        <v>0.1614900019210532</v>
       </c>
       <c r="D218" t="n">
-        <v>0.008936085012258996</v>
+        <v>0.1210071863738141</v>
       </c>
     </row>
     <row r="219">
@@ -3449,13 +3423,13 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>42736</v>
+        <v>42856</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.08798579444023599</v>
+        <v>0.1166385527312485</v>
       </c>
       <c r="D219" t="n">
-        <v>0.001528961911023086</v>
+        <v>0.1301230727929565</v>
       </c>
     </row>
     <row r="220">
@@ -3463,13 +3437,13 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>42767</v>
+        <v>42887</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.1702811289162747</v>
+        <v>0.1435479002169676</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.01044307154958615</v>
+        <v>0.1475257724619686</v>
       </c>
     </row>
     <row r="221">
@@ -3477,13 +3451,13 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>42795</v>
+        <v>42917</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.1057637546631527</v>
+        <v>0.1168275426540435</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.02781559512919379</v>
+        <v>0.1597041634602849</v>
       </c>
     </row>
     <row r="222">
@@ -3491,13 +3465,13 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>42826</v>
+        <v>42948</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.1229205327873664</v>
+        <v>0.1329146945915154</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.03095120962630073</v>
+        <v>0.1596441263458041</v>
       </c>
     </row>
     <row r="223">
@@ -3505,13 +3479,13 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>42856</v>
+        <v>42979</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.0201112141818096</v>
+        <v>0.1075527565550223</v>
       </c>
       <c r="D223" t="n">
-        <v>6.648860029064008e-05</v>
+        <v>0.1525314798230741</v>
       </c>
     </row>
     <row r="224">
@@ -3519,13 +3493,11 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="C224" t="n">
-        <v>-0.007330865094425281</v>
-      </c>
+        <v>43009</v>
+      </c>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>0.06107040136468707</v>
+        <v>0.1492652916201761</v>
       </c>
     </row>
     <row r="225">
@@ -3533,13 +3505,13 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>42917</v>
+        <v>43040</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1160481641417107</v>
+        <v>0.1055254188855903</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1208327265165178</v>
+        <v>0.1546168208755326</v>
       </c>
     </row>
     <row r="226">
@@ -3547,13 +3519,13 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>42948</v>
+        <v>43070</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1270673129526552</v>
+        <v>0.1614630130282056</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1443645715724587</v>
+        <v>0.162127555076828</v>
       </c>
     </row>
     <row r="227">
@@ -3561,13 +3533,13 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>42979</v>
+        <v>43101</v>
       </c>
       <c r="C227" t="n">
-        <v>0.08397627809818155</v>
+        <v>0.1843752165729167</v>
       </c>
       <c r="D227" t="n">
-        <v>0.1213171211962043</v>
+        <v>0.1609369164621277</v>
       </c>
     </row>
     <row r="228">
@@ -3575,13 +3547,295 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>43009</v>
+        <v>43132</v>
       </c>
       <c r="C228" t="n">
-        <v>0.01413116943694251</v>
+        <v>0.2060954938375896</v>
       </c>
       <c r="D228" t="n">
-        <v>0.07284836664151838</v>
+        <v>0.1476130062777262</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.202801496308815</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1739635053356381</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1242575915006635</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>43221</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1134775936986895</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.1333734779198058</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1445278019647685</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.1507761775888179</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1453463387964265</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1629545685871345</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1938327921518322</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.1628945314726537</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1081819694042287</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1557818849499237</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.06367870910143175</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1525156967470256</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1156241911371339</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1578672260023824</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1386364510644825</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1653779602036774</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1533586596278241</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1641873215889773</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1907152691476254</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.1508634114045755</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1651352956044243</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.134146092432615</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.1417616747253357</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.127507996627513</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1750913905127688</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1366238830466555</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.222848511724274</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.1540265827156672</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="n">
+        <v>0.1662049737139839</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="n">
+        <v>0.1661449365995031</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="n">
+        <v>0.1590322900767733</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="n">
+        <v>0.1557661018738751</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="n">
+        <v>0.1611176311292318</v>
       </c>
     </row>
   </sheetData>
